--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>TCID</t>
   </si>
@@ -90,13 +90,13 @@
     <t xml:space="preserve">Validate My own Profile </t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>ProfileUpdateTest</t>
   </si>
   <si>
     <t>To verity user is able to update his own profile data</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
   <si>
     <t>FAIL</t>
@@ -106,6 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -505,15 +506,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -538,9 +539,11 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" s="2" t="s">
@@ -549,10 +552,12 @@
       <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
@@ -561,24 +566,26 @@
       <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -595,10 +602,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -642,11 +649,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>
@@ -99,7 +99,10 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SKIP</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D5"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,10 +542,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
@@ -553,10 +556,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -567,10 +570,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -581,10 +584,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="13290" windowHeight="4425"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="AuthoringTest" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>
@@ -96,13 +97,13 @@
     <t>To verity user is able to update his own profile data</t>
   </si>
   <si>
+    <t>SKIP</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>SKIP</t>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -509,7 +510,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,10 +543,10 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
@@ -556,10 +557,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -570,10 +571,10 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -584,10 +585,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +598,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -12,12 +12,11 @@
     <sheet name="AuthoringTest" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="34">
   <si>
     <t>TCID</t>
   </si>
@@ -100,10 +99,34 @@
     <t>SKIP</t>
   </si>
   <si>
+    <t>ApplicationLinksValidationTest</t>
+  </si>
+  <si>
+    <t>Validate below Application links 
+1. Web of Science
+2.End Note
+3.InCities
+4.ScholarOne Abstracts
+5.ScholarOne Manuscripts</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>AppHeaderFooterLinkValidationTest</t>
+  </si>
+  <si>
+    <t>Validate Project Neon Header and Fooler links
+1.Help
+2.Cookie Policy
+3.Privacy Statement
+4.Terms of Use</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -507,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -543,7 +566,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -557,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -571,7 +594,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -585,10 +608,38 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +649,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>TCID</t>
   </si>
@@ -110,9 +110,6 @@
 5.ScholarOne Manuscripts</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>AppHeaderFooterLinkValidationTest</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
 4.Terms of Use</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
 </sst>
@@ -133,7 +127,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -533,15 +526,15 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -566,7 +559,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -580,7 +573,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -594,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -608,7 +601,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -622,7 +615,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -630,16 +623,16 @@
     </row>
     <row r="7" spans="1:4" ht="75">
       <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -657,10 +650,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -704,11 +697,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="32">
   <si>
     <t>TCID</t>
   </si>
@@ -127,6 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -531,10 +532,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -632,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -650,10 +651,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -697,11 +698,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="32">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="32">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>TCID</t>
   </si>
@@ -120,14 +120,28 @@
 4.Terms of Use</t>
   </si>
   <si>
+    <t>OwnProfileCommentsLikeTest</t>
+  </si>
+  <si>
+    <t>Validate User Own Profile Comments Like Test</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>OthersProfileCommentsLikeTest</t>
+  </si>
+  <si>
+    <t>Validate Other User Profile Comments Like Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -524,18 +538,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -560,7 +574,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -574,7 +588,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -588,7 +602,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -602,7 +616,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -615,8 +629,8 @@
       <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -630,10 +644,38 @@
         <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -651,10 +693,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -698,11 +740,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -137,11 +137,21 @@
   <si>
     <t>Validate Other User Profile Comments Like Test</t>
   </si>
+  <si>
+    <t>ProfileInterestSkillsUpdateTest</t>
+  </si>
+  <si>
+    <t>To verify User can able to update his Own Profile Interests and Skills</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -538,18 +548,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -658,10 +668,10 @@
         <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -672,9 +682,23 @@
         <v>36</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -693,10 +717,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -740,11 +764,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -699,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>TCID</t>
   </si>
@@ -126,12 +126,6 @@
     <t>Validate User Own Profile Comments Like Test</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>OthersProfileCommentsLikeTest</t>
   </si>
   <si>
@@ -142,16 +136,12 @@
   </si>
   <si>
     <t>To verify User can able to update his Own Profile Interests and Skills</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -551,15 +541,15 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -583,8 +573,8 @@
       <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>33</v>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -597,8 +587,8 @@
       <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>33</v>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -611,8 +601,8 @@
       <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -625,8 +615,8 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>33</v>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -639,8 +629,8 @@
       <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>33</v>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -653,8 +643,8 @@
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>33</v>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -667,8 +657,8 @@
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>33</v>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -676,13 +666,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -690,10 +680,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -717,10 +707,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -764,11 +754,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>To verify User can able to update his Own Profile Interests and Skills</t>
+  </si>
+  <si>
+    <t>ProfileFollowingOthersTest</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>To verity User Own Profile following other profile and following size count get increased</t>
   </si>
 </sst>
 </file>
@@ -538,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -573,7 +582,7 @@
       <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -587,7 +596,7 @@
       <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -601,7 +610,7 @@
       <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -615,7 +624,7 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -629,7 +638,7 @@
       <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -643,7 +652,7 @@
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -657,7 +666,7 @@
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -671,7 +680,7 @@
       <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -685,15 +694,30 @@
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -126,32 +126,31 @@
     <t>Validate User Own Profile Comments Like Test</t>
   </si>
   <si>
-    <t>N</t>
+    <t>OthersProfileCommentsLikeTest</t>
+  </si>
+  <si>
+    <t>Validate Other User Profile Comments Like Test</t>
+  </si>
+  <si>
+    <t>ProfileInterestSkillsUpdateTest</t>
+  </si>
+  <si>
+    <t>To verify User can able to update his Own Profile Interests and Skills</t>
+  </si>
+  <si>
+    <t>ProfileFollowingOthersTest</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>OthersProfileCommentsLikeTest</t>
-  </si>
-  <si>
-    <t>Validate Other User Profile Comments Like Test</t>
-  </si>
-  <si>
-    <t>ProfileInterestSkillsUpdateTest</t>
-  </si>
-  <si>
-    <t>To verify User can able to update his Own Profile Interests and Skills</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>To verity User Own Profile following other profile and following size count get increased</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -548,18 +547,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -584,7 +583,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -598,7 +597,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -612,7 +611,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -626,7 +625,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -640,7 +639,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -654,7 +653,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -668,7 +667,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -676,13 +675,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -690,20 +689,35 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -717,10 +731,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -764,11 +778,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>TCID</t>
   </si>
@@ -151,6 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -555,10 +556,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -731,10 +732,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -778,11 +779,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -146,12 +146,14 @@
   <si>
     <t>To verity User Own Profile following other profile and following size count get increased</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -556,10 +558,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -584,7 +586,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -598,7 +600,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -612,7 +614,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -626,7 +628,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -640,7 +642,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -654,7 +656,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -668,7 +670,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -682,7 +684,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -696,7 +698,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
@@ -710,7 +712,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
@@ -732,10 +734,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -779,11 +781,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -154,6 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -558,10 +559,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -734,10 +735,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -781,11 +782,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -147,6 +147,18 @@
     <t>To verity User Own Profile following other profile and following size count get increased</t>
   </si>
   <si>
+    <t>Add summary validation</t>
+  </si>
+  <si>
+    <t>ProfileSummaryTest</t>
+  </si>
+  <si>
+    <t>ProfileFollowerTest</t>
+  </si>
+  <si>
+    <t>To verify count of users following me</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
 </sst>
@@ -154,7 +166,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -551,18 +562,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -587,7 +598,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -601,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -615,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -629,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -643,7 +654,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -657,7 +668,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -671,7 +682,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -685,7 +696,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -699,7 +710,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
@@ -713,11 +724,35 @@
         <v>39</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -735,10 +770,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -782,11 +817,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -141,25 +141,22 @@
     <t>ProfileFollowingOthersTest</t>
   </si>
   <si>
+    <t>To verity User Own Profile following other profile and following size count get increased</t>
+  </si>
+  <si>
+    <t>Add summary validation</t>
+  </si>
+  <si>
+    <t>ProfileSummaryTest</t>
+  </si>
+  <si>
+    <t>ProfileFollowerTest</t>
+  </si>
+  <si>
+    <t>To verify count of users following me</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>To verity User Own Profile following other profile and following size count get increased</t>
-  </si>
-  <si>
-    <t>Add summary validation</t>
-  </si>
-  <si>
-    <t>ProfileSummaryTest</t>
-  </si>
-  <si>
-    <t>ProfileFollowerTest</t>
-  </si>
-  <si>
-    <t>To verify count of users following me</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -565,7 +562,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -598,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -612,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -626,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -640,7 +637,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -654,7 +651,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -668,7 +665,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -682,7 +679,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -696,7 +693,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -710,7 +707,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
@@ -721,38 +718,42 @@
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -595,7 +598,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -609,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -623,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -637,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -651,7 +654,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -665,7 +668,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -679,7 +682,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -693,7 +696,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -707,7 +710,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
@@ -721,7 +724,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
@@ -735,7 +738,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -598,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -612,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -626,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -640,7 +637,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
@@ -654,7 +651,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -668,7 +665,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -682,7 +679,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -696,7 +693,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -710,7 +707,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
@@ -724,7 +721,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
@@ -738,7 +735,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,10 +738,10 @@
         <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -752,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -735,10 +738,10 @@
         <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -752,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>To verify count of users following me</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -565,7 +559,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -738,10 +732,10 @@
         <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>To verify count of users following me</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -163,6 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -567,10 +568,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -771,10 +772,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -818,11 +819,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -155,15 +155,11 @@
   <si>
     <t>To verify count of users following me</t>
   </si>
-  <si>
-    <t>N</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -563,15 +559,15 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -736,7 +732,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>
@@ -772,10 +768,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -819,11 +815,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -155,11 +155,18 @@
   <si>
     <t>To verify count of users following me</t>
   </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -559,15 +566,15 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -592,7 +599,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -606,7 +613,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -620,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -637,7 +644,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="90">
@@ -648,7 +655,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -662,7 +669,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -676,7 +683,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -690,7 +697,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -704,7 +711,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
@@ -718,7 +725,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
@@ -732,7 +739,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>
@@ -746,7 +753,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>26</v>
@@ -768,10 +775,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -815,11 +822,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -156,9 +156,6 @@
     <t>To verify count of users following me</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
 </sst>
@@ -166,7 +163,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -566,15 +562,15 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -599,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -613,7 +609,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -627,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>26</v>
@@ -644,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="90">
@@ -655,7 +651,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
@@ -669,7 +665,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -683,7 +679,7 @@
         <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -697,7 +693,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -711,7 +707,7 @@
         <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>26</v>
@@ -725,7 +721,7 @@
         <v>38</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
@@ -739,7 +735,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>
@@ -753,7 +749,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>26</v>
@@ -775,10 +771,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -822,11 +818,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -156,14 +156,13 @@
     <t>To verify count of users following me</t>
   </si>
   <si>
-    <t>N</t>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -563,15 +562,15 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -641,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="90">
@@ -736,7 +735,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>26</v>
@@ -772,10 +771,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -819,11 +818,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>
@@ -163,6 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -567,10 +568,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -640,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="90">
@@ -771,10 +772,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -818,11 +819,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="44">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>TCID</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>To verity user is able to update his own profile data</t>
-  </si>
-  <si>
-    <t>SKIP</t>
   </si>
   <si>
     <t>ApplicationLinksValidationTest</t>
@@ -156,14 +153,40 @@
     <t>To verify count of users following me</t>
   </si>
   <si>
+    <t>FindProfileWithLastNameTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to find other profiles with their last name</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FindProfileWithRoleTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to find other profiles with their Title/Role</t>
+  </si>
+  <si>
+    <t>FindProfileWithPrimaryInstitutionTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to find other profiles with their Primary Institution</t>
+  </si>
+  <si>
+    <t>FindProfileWithCountryTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to find other profiles with their Country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -560,18 +583,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -599,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
@@ -613,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -627,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -641,119 +664,175 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="90">
       <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="75">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="C7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C10" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30">
       <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -772,10 +851,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -819,11 +898,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>Verify that user is able to find other profiles with their Country</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -633,7 +636,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>44</v>
@@ -647,7 +650,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>44</v>
@@ -661,7 +664,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>44</v>
@@ -675,7 +678,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>44</v>
@@ -689,7 +692,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>44</v>
@@ -703,7 +706,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>44</v>
@@ -717,7 +720,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>44</v>
@@ -731,7 +734,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -745,7 +748,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>44</v>
@@ -759,7 +762,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>44</v>
@@ -773,7 +776,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>44</v>
@@ -787,7 +790,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>44</v>
@@ -801,7 +804,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>44</v>
@@ -815,7 +818,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>45</v>
@@ -829,7 +832,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>44</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>TCID</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Verify that user is able to find other profiles with their Country</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -589,7 +586,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,7 +633,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>44</v>
@@ -650,7 +647,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>44</v>
@@ -664,7 +661,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>44</v>
@@ -678,7 +675,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>44</v>
@@ -692,7 +689,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>44</v>
@@ -706,7 +703,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>44</v>
@@ -720,7 +717,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>44</v>
@@ -734,7 +731,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -748,7 +745,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>44</v>
@@ -762,7 +759,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>44</v>
@@ -776,7 +773,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>44</v>
@@ -790,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>44</v>
@@ -804,7 +801,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>44</v>
@@ -818,7 +815,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>45</v>
@@ -832,7 +829,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>44</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case Steps" sheetId="4" r:id="rId2"/>
-    <sheet name="AuthoringTest" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -39,67 +38,73 @@
     <t>TC STEPS</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>CompleteArticleName</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>chinna.putha@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>Welcome01</t>
-  </si>
-  <si>
-    <t>drug delivery System</t>
-  </si>
-  <si>
-    <t>Schizophrenia and drug delivery systems</t>
-  </si>
-  <si>
-    <t>Testing Comments</t>
-  </si>
-  <si>
     <t>ProfileFollowTest</t>
   </si>
   <si>
-    <t>To verify user is following another user</t>
-  </si>
-  <si>
     <t>FindProfileTest</t>
   </si>
   <si>
-    <t>To validate other profile details and other profile shold not contain edit option</t>
-  </si>
-  <si>
     <t>ViewProfileTest</t>
   </si>
   <si>
-    <t xml:space="preserve">Validate My own Profile </t>
-  </si>
-  <si>
     <t>ProfileUpdateTest</t>
   </si>
   <si>
-    <t>To verity user is able to update his own profile data</t>
-  </si>
-  <si>
     <t>ApplicationLinksValidationTest</t>
   </si>
   <si>
-    <t>Validate below Application links 
+    <t>AppHeaderFooterLinkValidationTest</t>
+  </si>
+  <si>
+    <t>OwnProfileCommentsLikeTest</t>
+  </si>
+  <si>
+    <t>OthersProfileCommentsLikeTest</t>
+  </si>
+  <si>
+    <t>ProfileInterestSkillsUpdateTest</t>
+  </si>
+  <si>
+    <t>ProfileFollowingOthersTest</t>
+  </si>
+  <si>
+    <t>ProfileSummaryTest</t>
+  </si>
+  <si>
+    <t>ProfileFollowerTest</t>
+  </si>
+  <si>
+    <t>FindProfileWithLastNameTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to find other profiles with their last name</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>FindProfileWithRoleTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to find other profiles with their Title/Role</t>
+  </si>
+  <si>
+    <t>FindProfileWithPrimaryInstitutionTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to find other profiles with their Primary Institution</t>
+  </si>
+  <si>
+    <t>FindProfileWithCountryTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to find other profiles with their Country</t>
+  </si>
+  <si>
+    <t>FindProfileWithInterestTest</t>
+  </si>
+  <si>
+    <t>Verify that  below Application links working as expected
 1. Web of Science
 2.End Note
 3.InCities
@@ -107,80 +112,54 @@
 5.ScholarOne Manuscripts</t>
   </si>
   <si>
-    <t>AppHeaderFooterLinkValidationTest</t>
-  </si>
-  <si>
-    <t>Validate Project Neon Header and Fooler links
+    <t>Verify that below Project Neon Header and Footer links working as expected
 1.Help
 2.Cookie Policy
 3.Privacy Statement
 4.Terms of Use</t>
   </si>
   <si>
-    <t>OwnProfileCommentsLikeTest</t>
-  </si>
-  <si>
-    <t>Validate User Own Profile Comments Like Test</t>
-  </si>
-  <si>
-    <t>OthersProfileCommentsLikeTest</t>
-  </si>
-  <si>
-    <t>Validate Other User Profile Comments Like Test</t>
-  </si>
-  <si>
-    <t>ProfileInterestSkillsUpdateTest</t>
-  </si>
-  <si>
-    <t>To verify User can able to update his Own Profile Interests and Skills</t>
-  </si>
-  <si>
-    <t>ProfileFollowingOthersTest</t>
-  </si>
-  <si>
-    <t>To verity User Own Profile following other profile and following size count get increased</t>
-  </si>
-  <si>
-    <t>Add summary validation</t>
-  </si>
-  <si>
-    <t>ProfileSummaryTest</t>
-  </si>
-  <si>
-    <t>ProfileFollowerTest</t>
-  </si>
-  <si>
-    <t>To verify count of users following me</t>
-  </si>
-  <si>
-    <t>FindProfileWithLastNameTest</t>
-  </si>
-  <si>
-    <t>Verify that user is able to find other profiles with their last name</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>FindProfileWithRoleTest</t>
-  </si>
-  <si>
-    <t>Verify that user is able to find other profiles with their Title/Role</t>
-  </si>
-  <si>
-    <t>FindProfileWithPrimaryInstitutionTest</t>
-  </si>
-  <si>
-    <t>Verify that user is able to find other profiles with their Primary Institution</t>
-  </si>
-  <si>
-    <t>FindProfileWithCountryTest</t>
-  </si>
-  <si>
-    <t>Verify that user is able to find other profiles with their Country</t>
+    <t>Verify that user is able to search for profiles with interests and Skills</t>
+  </si>
+  <si>
+    <t>Verify that user is able to view his own profile
+Verify that user is able to get profile and verify the first and last names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to follow other profile and test for count of users following me
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Verify that user is able to test for count of users following me</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Start/Stop following a user from profile search results page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to Like his own comments from his profile page 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to Like others comments from their profile page
+</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit  info like Interests and Skills from his own profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to edit Summary field from his own profile and validate max length condition
+</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Start/Stop following a user from profile page 
+Verify that user should not able to  Edit others profile</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit  info like title/role,Primary Institution and country from his own profile</t>
   </si>
 </sst>
 </file>
@@ -210,14 +189,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,12 +205,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,10 +236,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -277,13 +248,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,228 +586,242 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75">
-      <c r="A7" s="2" t="s">
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -851,103 +840,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="196.5" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="252.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -166,6 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -566,10 +567,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -821,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -840,10 +841,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case Steps" sheetId="4" r:id="rId2"/>
-    <sheet name="AuthoringTest" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -39,70 +38,73 @@
     <t>TC STEPS</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>CompleteArticleName</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>chinna.putha@thomsonreuters.com</t>
-  </si>
-  <si>
-    <t>Welcome01</t>
-  </si>
-  <si>
-    <t>drug delivery System</t>
-  </si>
-  <si>
-    <t>Schizophrenia and drug delivery systems</t>
-  </si>
-  <si>
-    <t>Testing Comments</t>
-  </si>
-  <si>
     <t>ProfileFollowTest</t>
   </si>
   <si>
-    <t>To verify user is following another user</t>
-  </si>
-  <si>
     <t>FindProfileTest</t>
   </si>
   <si>
-    <t>To validate other profile details and other profile shold not contain edit option</t>
-  </si>
-  <si>
     <t>ViewProfileTest</t>
   </si>
   <si>
-    <t xml:space="preserve">Validate My own Profile </t>
-  </si>
-  <si>
     <t>ProfileUpdateTest</t>
   </si>
   <si>
-    <t>To verity user is able to update his own profile data</t>
+    <t>ApplicationLinksValidationTest</t>
+  </si>
+  <si>
+    <t>AppHeaderFooterLinkValidationTest</t>
+  </si>
+  <si>
+    <t>OwnProfileCommentsLikeTest</t>
+  </si>
+  <si>
+    <t>OthersProfileCommentsLikeTest</t>
+  </si>
+  <si>
+    <t>ProfileInterestSkillsUpdateTest</t>
+  </si>
+  <si>
+    <t>ProfileFollowingOthersTest</t>
+  </si>
+  <si>
+    <t>ProfileSummaryTest</t>
+  </si>
+  <si>
+    <t>ProfileFollowerTest</t>
+  </si>
+  <si>
+    <t>FindProfileWithLastNameTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to find other profiles with their last name</t>
   </si>
   <si>
     <t>SKIP</t>
   </si>
   <si>
-    <t>ApplicationLinksValidationTest</t>
-  </si>
-  <si>
-    <t>Validate below Application links 
+    <t>FindProfileWithRoleTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to find other profiles with their Title/Role</t>
+  </si>
+  <si>
+    <t>FindProfileWithPrimaryInstitutionTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to find other profiles with their Primary Institution</t>
+  </si>
+  <si>
+    <t>FindProfileWithCountryTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to find other profiles with their Country</t>
+  </si>
+  <si>
+    <t>FindProfileWithInterestTest</t>
+  </si>
+  <si>
+    <t>Verify that  below Application links working as expected
 1. Web of Science
 2.End Note
 3.InCities
@@ -110,59 +112,61 @@
 5.ScholarOne Manuscripts</t>
   </si>
   <si>
-    <t>AppHeaderFooterLinkValidationTest</t>
-  </si>
-  <si>
-    <t>Validate Project Neon Header and Fooler links
+    <t>Verify that below Project Neon Header and Footer links working as expected
 1.Help
 2.Cookie Policy
 3.Privacy Statement
 4.Terms of Use</t>
   </si>
   <si>
-    <t>OwnProfileCommentsLikeTest</t>
-  </si>
-  <si>
-    <t>Validate User Own Profile Comments Like Test</t>
-  </si>
-  <si>
-    <t>OthersProfileCommentsLikeTest</t>
-  </si>
-  <si>
-    <t>Validate Other User Profile Comments Like Test</t>
-  </si>
-  <si>
-    <t>ProfileInterestSkillsUpdateTest</t>
-  </si>
-  <si>
-    <t>To verify User can able to update his Own Profile Interests and Skills</t>
-  </si>
-  <si>
-    <t>ProfileFollowingOthersTest</t>
-  </si>
-  <si>
-    <t>To verity User Own Profile following other profile and following size count get increased</t>
-  </si>
-  <si>
-    <t>Add summary validation</t>
-  </si>
-  <si>
-    <t>ProfileSummaryTest</t>
-  </si>
-  <si>
-    <t>ProfileFollowerTest</t>
-  </si>
-  <si>
-    <t>To verify count of users following me</t>
-  </si>
-  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Verify that user is able to search for profiles with interests and Skills</t>
+  </si>
+  <si>
+    <t>Verify that user is able to view his own profile
+Verify that user is able to get profile and verify the first and last names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to follow other profile and test for count of users following me
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Verify that user is able to test for count of users following me</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Start/Stop following a user from profile search results page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to Like his own comments from his profile page 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to Like others comments from their profile page
+</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit  info like Interests and Skills from his own profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to edit Summary field from his own profile and validate max length condition
+</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Start/Stop following a user from profile page 
+Verify that user should not able to  Edit others profile</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit  info like title/role,Primary Institution and country from his own profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -186,14 +190,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,12 +206,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,10 +237,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -253,13 +249,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,18 +559,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -587,172 +587,242 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="90">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75">
-      <c r="A7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -771,103 +841,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="196.5" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" ht="252.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="43">
   <si>
     <t>TCID</t>
   </si>
@@ -166,6 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -566,10 +567,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -821,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -840,10 +841,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="45.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="83.5703125" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
   <si>
     <t>TCID</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>Runmode</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Results</t>
@@ -119,9 +116,6 @@
 4.Terms of Use</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>Verify that user is able to search for profiles with interests and Skills</t>
   </si>
   <si>
@@ -133,10 +127,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-Verify that user is able to test for count of users following me</t>
-  </si>
-  <si>
     <t>Verify that user is able to Start/Stop following a user from profile search results page</t>
   </si>
   <si>
@@ -151,15 +141,90 @@
     <t>Verify that user is able to edit  info like Interests and Skills from his own profile</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user is able to edit Summary field from his own profile and validate max length condition
-</t>
-  </si>
-  <si>
     <t>Verify that user is able to Start/Stop following a user from profile page 
 Verify that user should not able to  Edit others profile</t>
   </si>
   <si>
     <t>Verify that user is able to edit  info like title/role,Primary Institution and country from his own profile</t>
+  </si>
+  <si>
+    <t>OPQA-444</t>
+  </si>
+  <si>
+    <t>OPQA-445|OPQA-711</t>
+  </si>
+  <si>
+    <t>OPQA-494|OPQA-501</t>
+  </si>
+  <si>
+    <t>OPQA-495</t>
+  </si>
+  <si>
+    <t>OPQA-498</t>
+  </si>
+  <si>
+    <t>OPQA-499</t>
+  </si>
+  <si>
+    <t>OPQA-496</t>
+  </si>
+  <si>
+    <t>OPQA-447</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit Summary field from his own profile and validate max length condition</t>
+  </si>
+  <si>
+    <t>OPQA-497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Verify that user is able to test for count of users I am following</t>
+  </si>
+  <si>
+    <t>OPQA-446</t>
+  </si>
+  <si>
+    <t>OPQA-437</t>
+  </si>
+  <si>
+    <t>OPQA-439</t>
+  </si>
+  <si>
+    <t>OPQA-441</t>
+  </si>
+  <si>
+    <t>OPQA-440</t>
+  </si>
+  <si>
+    <t>OPQA-438</t>
+  </si>
+  <si>
+    <t>OPQA-742</t>
+  </si>
+  <si>
+    <t>OPQA-743</t>
+  </si>
+  <si>
+    <t>JIRA ID</t>
+  </si>
+  <si>
+    <t>OPQA-444|OPQA-434</t>
+  </si>
+  <si>
+    <t>OPQA-445|OPQA-711|OPQA-435|OPQA-436</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -237,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -260,6 +325,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,270 +626,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="90">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="90">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="B15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>21</v>
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -852,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>TCID</t>
   </si>
@@ -148,12 +148,6 @@
     <t>Verify that user is able to edit  info like title/role,Primary Institution and country from his own profile</t>
   </si>
   <si>
-    <t>OPQA-444</t>
-  </si>
-  <si>
-    <t>OPQA-445|OPQA-711</t>
-  </si>
-  <si>
     <t>OPQA-494|OPQA-501</t>
   </si>
   <si>
@@ -222,16 +216,12 @@
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -325,8 +315,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,17 +619,17 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -647,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -664,340 +654,306 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="30">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="90">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="90">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="30">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="45">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="30">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>51</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>52</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="F18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1015,10 +971,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -127,9 +127,6 @@
 </t>
   </si>
   <si>
-    <t>Verify that user is able to Start/Stop following a user from profile search results page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that user is able to Like his own comments from his profile page 
 </t>
   </si>
@@ -216,6 +213,10 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Start/Stop following a user from profile search results page
+Verify that user is able to search for profiles</t>
   </si>
 </sst>
 </file>
@@ -618,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -637,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -649,15 +650,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>59</v>
@@ -672,13 +673,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -690,13 +691,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -708,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -726,7 +727,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
@@ -735,7 +736,7 @@
         <v>59</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F6" s="10"/>
     </row>
@@ -744,13 +745,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -762,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -780,13 +781,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -798,13 +799,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -816,13 +817,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
@@ -834,13 +835,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
@@ -852,10 +853,10 @@
         <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>59</v>
@@ -870,16 +871,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -888,16 +889,16 @@
         <v>21</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -906,13 +907,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -924,13 +925,13 @@
         <v>25</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
@@ -942,13 +943,13 @@
         <v>27</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>TCID</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>Runmode</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Results</t>
@@ -119,9 +116,6 @@
 4.Terms of Use</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>Verify that user is able to search for profiles with interests and Skills</t>
   </si>
   <si>
@@ -133,13 +127,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-Verify that user is able to test for count of users following me</t>
-  </si>
-  <si>
-    <t>Verify that user is able to Start/Stop following a user from profile search results page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that user is able to Like his own comments from his profile page 
 </t>
   </si>
@@ -151,22 +138,91 @@
     <t>Verify that user is able to edit  info like Interests and Skills from his own profile</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that user is able to edit Summary field from his own profile and validate max length condition
-</t>
-  </si>
-  <si>
     <t>Verify that user is able to Start/Stop following a user from profile page 
 Verify that user should not able to  Edit others profile</t>
   </si>
   <si>
     <t>Verify that user is able to edit  info like title/role,Primary Institution and country from his own profile</t>
+  </si>
+  <si>
+    <t>OPQA-494|OPQA-501</t>
+  </si>
+  <si>
+    <t>OPQA-495</t>
+  </si>
+  <si>
+    <t>OPQA-498</t>
+  </si>
+  <si>
+    <t>OPQA-499</t>
+  </si>
+  <si>
+    <t>OPQA-496</t>
+  </si>
+  <si>
+    <t>OPQA-447</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit Summary field from his own profile and validate max length condition</t>
+  </si>
+  <si>
+    <t>OPQA-497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Verify that user is able to test for count of users I am following</t>
+  </si>
+  <si>
+    <t>OPQA-446</t>
+  </si>
+  <si>
+    <t>OPQA-437</t>
+  </si>
+  <si>
+    <t>OPQA-439</t>
+  </si>
+  <si>
+    <t>OPQA-441</t>
+  </si>
+  <si>
+    <t>OPQA-440</t>
+  </si>
+  <si>
+    <t>OPQA-438</t>
+  </si>
+  <si>
+    <t>OPQA-742</t>
+  </si>
+  <si>
+    <t>OPQA-743</t>
+  </si>
+  <si>
+    <t>JIRA ID</t>
+  </si>
+  <si>
+    <t>OPQA-444|OPQA-434</t>
+  </si>
+  <si>
+    <t>OPQA-445|OPQA-711|OPQA-435|OPQA-436</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Start/Stop following a user from profile search results page
+Verify that user is able to search for profiles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -237,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -260,6 +316,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,271 +617,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="90">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="90">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="30">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="90">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="D18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -841,10 +972,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -852,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>TCID</t>
   </si>
@@ -206,13 +206,7 @@
     <t>OPQA-445|OPQA-711|OPQA-435|OPQA-436</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>Verify that user is able to Start/Stop following a user from profile search results page
@@ -619,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,10 +652,10 @@
         <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -733,10 +727,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F6" s="10"/>
     </row>
@@ -859,7 +853,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
@@ -877,7 +871,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -895,7 +889,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
@@ -913,7 +907,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -931,7 +925,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
@@ -949,7 +943,7 @@
         <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -109,115 +109,137 @@
 5.ScholarOne Manuscripts</t>
   </si>
   <si>
+    <t>Verify that user is able to search for profiles with interests and Skills</t>
+  </si>
+  <si>
+    <t>Verify that user is able to view his own profile
+Verify that user is able to get profile and verify the first and last names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to follow other profile and test for count of users following me
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to Like his own comments from his profile page 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to Like others comments from their profile page
+</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit  info like Interests and Skills from his own profile</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit  info like title/role,Primary Institution and country from his own profile</t>
+  </si>
+  <si>
+    <t>OPQA-494|OPQA-501</t>
+  </si>
+  <si>
+    <t>OPQA-495</t>
+  </si>
+  <si>
+    <t>OPQA-498</t>
+  </si>
+  <si>
+    <t>OPQA-499</t>
+  </si>
+  <si>
+    <t>OPQA-496</t>
+  </si>
+  <si>
+    <t>OPQA-447</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit Summary field from his own profile and validate max length condition</t>
+  </si>
+  <si>
+    <t>OPQA-497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Verify that user is able to test for count of users I am following</t>
+  </si>
+  <si>
+    <t>OPQA-446</t>
+  </si>
+  <si>
+    <t>OPQA-437</t>
+  </si>
+  <si>
+    <t>OPQA-439</t>
+  </si>
+  <si>
+    <t>OPQA-441</t>
+  </si>
+  <si>
+    <t>OPQA-440</t>
+  </si>
+  <si>
+    <t>OPQA-438</t>
+  </si>
+  <si>
+    <t>OPQA-742</t>
+  </si>
+  <si>
+    <t>OPQA-743</t>
+  </si>
+  <si>
+    <t>JIRA ID</t>
+  </si>
+  <si>
+    <t>OPQA-444|OPQA-434</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Start/Stop following a user from profile search results page
+Verify that user is able to search for profiles</t>
+  </si>
+  <si>
     <t>Verify that below Project Neon Header and Footer links working as expected
 1.Help
 2.Cookie Policy
 3.Privacy Statement
-4.Terms of Use</t>
-  </si>
-  <si>
-    <t>Verify that user is able to search for profiles with interests and Skills</t>
-  </si>
-  <si>
-    <t>Verify that user is able to view his own profile
-Verify that user is able to get profile and verify the first and last names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to follow other profile and test for count of users following me
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to Like his own comments from his profile page 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to Like others comments from their profile page
-</t>
-  </si>
-  <si>
-    <t>Verify that user is able to edit  info like Interests and Skills from his own profile</t>
-  </si>
-  <si>
-    <t>Verify that user is able to Start/Stop following a user from profile page 
-Verify that user should not able to  Edit others profile</t>
-  </si>
-  <si>
-    <t>Verify that user is able to edit  info like title/role,Primary Institution and country from his own profile</t>
-  </si>
-  <si>
-    <t>OPQA-494|OPQA-501</t>
-  </si>
-  <si>
-    <t>OPQA-495</t>
-  </si>
-  <si>
-    <t>OPQA-498</t>
-  </si>
-  <si>
-    <t>OPQA-499</t>
-  </si>
-  <si>
-    <t>OPQA-496</t>
-  </si>
-  <si>
-    <t>OPQA-447</t>
-  </si>
-  <si>
-    <t>Verify that user is able to edit Summary field from his own profile and validate max length condition</t>
-  </si>
-  <si>
-    <t>OPQA-497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Verify that user is able to test for count of users I am following</t>
-  </si>
-  <si>
-    <t>OPQA-446</t>
-  </si>
-  <si>
-    <t>OPQA-437</t>
-  </si>
-  <si>
-    <t>OPQA-439</t>
-  </si>
-  <si>
-    <t>OPQA-441</t>
-  </si>
-  <si>
-    <t>OPQA-440</t>
-  </si>
-  <si>
-    <t>OPQA-438</t>
-  </si>
-  <si>
-    <t>OPQA-742</t>
-  </si>
-  <si>
-    <t>OPQA-743</t>
-  </si>
-  <si>
-    <t>JIRA ID</t>
-  </si>
-  <si>
-    <t>OPQA-444|OPQA-434</t>
-  </si>
-  <si>
-    <t>OPQA-445|OPQA-711|OPQA-435|OPQA-436</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Verify that user is able to Start/Stop following a user from profile search results page
-Verify that user is able to search for profiles</t>
+4.Terms of Use
+5.Account</t>
+  </si>
+  <si>
+    <t>OtherProfileEditTest</t>
+  </si>
+  <si>
+    <t>Verify that user should not able to  Edit others profile</t>
+  </si>
+  <si>
+    <t>OPQA-711</t>
+  </si>
+  <si>
+    <t>Verify that user is able to get Profile details
+Verify that user is able to search for profiles with first name</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Start/Stop following a user from profile page</t>
+  </si>
+  <si>
+    <t>OPQA-435|OPQA-436</t>
+  </si>
+  <si>
+    <t>OPQA-445</t>
+  </si>
+  <si>
+    <t>OtherProfilePageFollowTest</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +263,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -312,6 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -632,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -649,13 +681,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -667,121 +699,121 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="90">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="105">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="90">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="90">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -790,34 +822,34 @@
     </row>
     <row r="10" spans="1:6" ht="30">
       <c r="A10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" ht="45">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
@@ -826,70 +858,70 @@
     </row>
     <row r="12" spans="1:6" ht="30">
       <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
@@ -898,16 +930,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -916,39 +948,75 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="7" t="s">
+      <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="11"/>
+      <c r="B20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>Runmode</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Results</t>
@@ -112,62 +109,137 @@
 5.ScholarOne Manuscripts</t>
   </si>
   <si>
+    <t>Verify that user is able to search for profiles with interests and Skills</t>
+  </si>
+  <si>
+    <t>Verify that user is able to view his own profile
+Verify that user is able to get profile and verify the first and last names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to follow other profile and test for count of users following me
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to Like his own comments from his profile page 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to Like others comments from their profile page
+</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit  info like Interests and Skills from his own profile</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit  info like title/role,Primary Institution and country from his own profile</t>
+  </si>
+  <si>
+    <t>OPQA-494|OPQA-501</t>
+  </si>
+  <si>
+    <t>OPQA-495</t>
+  </si>
+  <si>
+    <t>OPQA-498</t>
+  </si>
+  <si>
+    <t>OPQA-499</t>
+  </si>
+  <si>
+    <t>OPQA-496</t>
+  </si>
+  <si>
+    <t>OPQA-447</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit Summary field from his own profile and validate max length condition</t>
+  </si>
+  <si>
+    <t>OPQA-497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Verify that user is able to test for count of users I am following</t>
+  </si>
+  <si>
+    <t>OPQA-446</t>
+  </si>
+  <si>
+    <t>OPQA-437</t>
+  </si>
+  <si>
+    <t>OPQA-439</t>
+  </si>
+  <si>
+    <t>OPQA-441</t>
+  </si>
+  <si>
+    <t>OPQA-440</t>
+  </si>
+  <si>
+    <t>OPQA-438</t>
+  </si>
+  <si>
+    <t>OPQA-742</t>
+  </si>
+  <si>
+    <t>OPQA-743</t>
+  </si>
+  <si>
+    <t>JIRA ID</t>
+  </si>
+  <si>
+    <t>OPQA-444|OPQA-434</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Start/Stop following a user from profile search results page
+Verify that user is able to search for profiles</t>
+  </si>
+  <si>
     <t>Verify that below Project Neon Header and Footer links working as expected
 1.Help
 2.Cookie Policy
 3.Privacy Statement
-4.Terms of Use</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Verify that user is able to search for profiles with interests and Skills</t>
-  </si>
-  <si>
-    <t>Verify that user is able to view his own profile
-Verify that user is able to get profile and verify the first and last names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to follow other profile and test for count of users following me
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Verify that user is able to test for count of users following me</t>
-  </si>
-  <si>
-    <t>Verify that user is able to Start/Stop following a user from profile search results page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to Like his own comments from his profile page 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to Like others comments from their profile page
-</t>
-  </si>
-  <si>
-    <t>Verify that user is able to edit  info like Interests and Skills from his own profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to edit Summary field from his own profile and validate max length condition
-</t>
-  </si>
-  <si>
-    <t>Verify that user is able to Start/Stop following a user from profile page 
-Verify that user should not able to  Edit others profile</t>
-  </si>
-  <si>
-    <t>Verify that user is able to edit  info like title/role,Primary Institution and country from his own profile</t>
+4.Terms of Use
+5.Account</t>
+  </si>
+  <si>
+    <t>OtherProfileEditTest</t>
+  </si>
+  <si>
+    <t>Verify that user should not able to  Edit others profile</t>
+  </si>
+  <si>
+    <t>OPQA-711</t>
+  </si>
+  <si>
+    <t>Verify that user is able to get Profile details
+Verify that user is able to search for profiles with first name</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Start/Stop following a user from profile page</t>
+  </si>
+  <si>
+    <t>OPQA-435|OPQA-436</t>
+  </si>
+  <si>
+    <t>OPQA-445</t>
+  </si>
+  <si>
+    <t>OtherProfilePageFollowTest</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +263,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -259,6 +338,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,271 +643,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="90">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="105">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="90">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="D20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -841,10 +1034,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -852,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -232,7 +232,7 @@
     <t>OtherProfilePageFollowTest</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -780,7 +780,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F7" s="11"/>
     </row>
@@ -870,7 +870,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F12" s="11"/>
     </row>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>TCID</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -645,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -687,7 +690,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -705,7 +708,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -723,7 +726,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -741,7 +744,7 @@
         <v>62</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -759,7 +762,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -777,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -795,7 +798,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -813,7 +816,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -831,7 +834,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -849,7 +852,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
@@ -885,7 +888,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
@@ -903,7 +906,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -939,7 +942,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -957,7 +960,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
@@ -975,7 +978,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
@@ -993,7 +996,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
@@ -1011,7 +1014,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>TCID</t>
   </si>
@@ -232,7 +232,10 @@
     <t>OtherProfilePageFollowTest</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -645,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -687,7 +690,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -705,7 +708,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -723,7 +726,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -741,7 +744,7 @@
         <v>62</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -759,7 +762,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -777,10 +780,10 @@
         <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F7" s="11"/>
     </row>
@@ -795,7 +798,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -813,7 +816,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -831,7 +834,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -849,7 +852,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
@@ -870,7 +873,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -885,7 +888,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
@@ -903,7 +906,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -939,7 +942,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -957,7 +960,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
@@ -975,7 +978,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
@@ -993,7 +996,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
@@ -1011,7 +1014,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -648,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -690,7 +687,7 @@
         <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -708,7 +705,7 @@
         <v>61</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -726,7 +723,7 @@
         <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -744,7 +741,7 @@
         <v>62</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -762,7 +759,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -780,7 +777,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -798,7 +795,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -816,7 +813,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -834,7 +831,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -852,7 +849,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
@@ -888,7 +885,7 @@
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
@@ -906,7 +903,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -942,7 +939,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -960,7 +957,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
@@ -978,7 +975,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
@@ -996,7 +993,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
@@ -1014,7 +1011,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -146,9 +146,6 @@
     <t>OPQA-499</t>
   </si>
   <si>
-    <t>OPQA-496</t>
-  </si>
-  <si>
     <t>OPQA-447</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>OPQA-496|OPQA-511</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -681,13 +681,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -699,13 +699,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -714,16 +714,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -732,16 +732,16 @@
     </row>
     <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -759,7 +759,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -777,7 +777,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -789,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -807,13 +807,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -831,7 +831,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -849,7 +849,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
@@ -861,16 +861,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -879,13 +879,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
@@ -897,13 +897,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -915,13 +915,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
@@ -933,13 +933,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -951,13 +951,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
@@ -969,13 +969,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
@@ -987,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
@@ -1005,13 +1005,13 @@
         <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -146,9 +146,6 @@
     <t>OPQA-499</t>
   </si>
   <si>
-    <t>OPQA-496</t>
-  </si>
-  <si>
     <t>OPQA-447</t>
   </si>
   <si>
@@ -232,7 +229,10 @@
     <t>OtherProfilePageFollowTest</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>OPQA-496|OPQA-511</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -681,13 +681,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -699,13 +699,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -714,16 +714,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -732,16 +732,16 @@
     </row>
     <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -759,7 +759,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -777,10 +777,10 @@
         <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="F7" s="11"/>
     </row>
@@ -789,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -807,13 +807,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -831,7 +831,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -849,7 +849,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
@@ -861,16 +861,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -879,13 +879,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
@@ -897,13 +897,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -915,13 +915,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
@@ -933,13 +933,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -951,13 +951,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
@@ -969,13 +969,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
@@ -987,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
@@ -1005,13 +1005,13 @@
         <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>Runmode</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Results</t>
@@ -112,62 +109,137 @@
 5.ScholarOne Manuscripts</t>
   </si>
   <si>
+    <t>Verify that user is able to search for profiles with interests and Skills</t>
+  </si>
+  <si>
+    <t>Verify that user is able to view his own profile
+Verify that user is able to get profile and verify the first and last names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to follow other profile and test for count of users following me
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to Like his own comments from his profile page 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to Like others comments from their profile page
+</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit  info like Interests and Skills from his own profile</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit  info like title/role,Primary Institution and country from his own profile</t>
+  </si>
+  <si>
+    <t>OPQA-494|OPQA-501</t>
+  </si>
+  <si>
+    <t>OPQA-495</t>
+  </si>
+  <si>
+    <t>OPQA-498</t>
+  </si>
+  <si>
+    <t>OPQA-499</t>
+  </si>
+  <si>
+    <t>OPQA-447</t>
+  </si>
+  <si>
+    <t>Verify that user is able to edit Summary field from his own profile and validate max length condition</t>
+  </si>
+  <si>
+    <t>OPQA-497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Verify that user is able to test for count of users I am following</t>
+  </si>
+  <si>
+    <t>OPQA-446</t>
+  </si>
+  <si>
+    <t>OPQA-437</t>
+  </si>
+  <si>
+    <t>OPQA-439</t>
+  </si>
+  <si>
+    <t>OPQA-441</t>
+  </si>
+  <si>
+    <t>OPQA-440</t>
+  </si>
+  <si>
+    <t>OPQA-438</t>
+  </si>
+  <si>
+    <t>OPQA-742</t>
+  </si>
+  <si>
+    <t>OPQA-743</t>
+  </si>
+  <si>
+    <t>JIRA ID</t>
+  </si>
+  <si>
+    <t>OPQA-444|OPQA-434</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Start/Stop following a user from profile search results page
+Verify that user is able to search for profiles</t>
+  </si>
+  <si>
     <t>Verify that below Project Neon Header and Footer links working as expected
 1.Help
 2.Cookie Policy
 3.Privacy Statement
-4.Terms of Use</t>
+4.Terms of Use
+5.Account</t>
+  </si>
+  <si>
+    <t>OtherProfileEditTest</t>
+  </si>
+  <si>
+    <t>Verify that user should not able to  Edit others profile</t>
+  </si>
+  <si>
+    <t>OPQA-711</t>
+  </si>
+  <si>
+    <t>Verify that user is able to get Profile details
+Verify that user is able to search for profiles with first name</t>
+  </si>
+  <si>
+    <t>Verify that user is able to Start/Stop following a user from profile page</t>
+  </si>
+  <si>
+    <t>OPQA-435|OPQA-436</t>
+  </si>
+  <si>
+    <t>OPQA-445</t>
+  </si>
+  <si>
+    <t>OtherProfilePageFollowTest</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>Verify that user is able to search for profiles with interests and Skills</t>
-  </si>
-  <si>
-    <t>Verify that user is able to view his own profile
-Verify that user is able to get profile and verify the first and last names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to follow other profile and test for count of users following me
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Verify that user is able to test for count of users following me</t>
-  </si>
-  <si>
-    <t>Verify that user is able to Start/Stop following a user from profile search results page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to Like his own comments from his profile page 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to Like others comments from their profile page
-</t>
-  </si>
-  <si>
-    <t>Verify that user is able to edit  info like Interests and Skills from his own profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user is able to edit Summary field from his own profile and validate max length condition
-</t>
-  </si>
-  <si>
-    <t>Verify that user is able to Start/Stop following a user from profile page 
-Verify that user should not able to  Edit others profile</t>
-  </si>
-  <si>
-    <t>Verify that user is able to edit  info like title/role,Primary Institution and country from his own profile</t>
+    <t>OPQA-496|OPQA-511</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +263,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -259,6 +338,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,271 +643,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="70.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="90">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="105">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="B17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="90">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -841,10 +1034,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="45.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="83.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="83.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -852,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="48" customHeight="1">

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>TCID</t>
   </si>
@@ -146,9 +146,6 @@
     <t>OPQA-499</t>
   </si>
   <si>
-    <t>OPQA-496</t>
-  </si>
-  <si>
     <t>OPQA-447</t>
   </si>
   <si>
@@ -235,7 +232,7 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>N</t>
+    <t>OPQA-496|OPQA-511</t>
   </si>
 </sst>
 </file>
@@ -667,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -684,13 +681,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>20</v>
@@ -702,13 +699,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>20</v>
@@ -717,16 +714,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>20</v>
@@ -735,16 +732,16 @@
     </row>
     <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -762,7 +759,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -780,7 +777,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>20</v>
@@ -792,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>20</v>
@@ -810,13 +807,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -834,7 +831,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>20</v>
@@ -852,7 +849,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>20</v>
@@ -864,16 +861,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -882,13 +879,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>20</v>
@@ -900,13 +897,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
@@ -918,13 +915,13 @@
         <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
@@ -936,13 +933,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>20</v>
@@ -954,13 +951,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>20</v>
@@ -972,13 +969,13 @@
         <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
@@ -990,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>20</v>
@@ -1008,13 +1005,13 @@
         <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>20</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
   <si>
     <t>TCID</t>
   </si>
@@ -234,12 +234,39 @@
   <si>
     <t>OPQA-496|OPQA-511</t>
   </si>
+  <si>
+    <t>PublishAPostTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to post the article from profile page</t>
+  </si>
+  <si>
+    <t>OPQA-506</t>
+  </si>
+  <si>
+    <t>PublishAPostCountTest</t>
+  </si>
+  <si>
+    <t>verify that the total count of posts available under 'POST' tab of user profile.</t>
+  </si>
+  <si>
+    <t>OPQA-507</t>
+  </si>
+  <si>
+    <t>PublishedAPostNavigateToRVTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to select post and navigate to record view page</t>
+  </si>
+  <si>
+    <t>OPQA-508</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +301,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -343,6 +383,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -870,7 +918,7 @@
         <v>54</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -1017,6 +1065,57 @@
         <v>20</v>
       </c>
       <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.5">
+      <c r="A22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
   <si>
     <t>TCID</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Verify that user is able to find other profiles with their last name</t>
-  </si>
-  <si>
-    <t>SKIP</t>
   </si>
   <si>
     <t>FindProfileWithRoleTest</t>
@@ -189,9 +186,6 @@
     <t>OPQA-444|OPQA-434</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Verify that user is able to Start/Stop following a user from profile search results page
 Verify that user is able to search for profiles</t>
   </si>
@@ -229,9 +223,6 @@
     <t>OtherProfilePageFollowTest</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>OPQA-496|OPQA-511</t>
   </si>
   <si>
@@ -260,6 +251,33 @@
   </si>
   <si>
     <t>OPQA-508</t>
+  </si>
+  <si>
+    <t>ProfilePostsValidationTest</t>
+  </si>
+  <si>
+    <t>OPQA-514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to see all his POST's from his profile page. </t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>AddPostToWatchlistTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add his Post to 'watchlist'  from his profile.</t>
+  </si>
+  <si>
+    <t>OPQA-515</t>
   </si>
 </sst>
 </file>
@@ -691,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -712,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -729,16 +747,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -747,52 +765,52 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -801,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F6" s="10"/>
     </row>
@@ -819,16 +837,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F7" s="11"/>
     </row>
@@ -837,16 +855,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -855,16 +873,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -873,16 +891,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -891,16 +909,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -909,16 +927,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -927,16 +945,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -945,16 +963,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -963,16 +981,16 @@
         <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -981,140 +999,174 @@
         <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="31.5">
       <c r="A22" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>65</v>
+      <c r="D24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
   <si>
     <t>TCID</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Verify that user is able to find other profiles with their last name</t>
-  </si>
-  <si>
-    <t>SKIP</t>
   </si>
   <si>
     <t>FindProfileWithRoleTest</t>
@@ -189,9 +186,6 @@
     <t>OPQA-444|OPQA-434</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Verify that user is able to Start/Stop following a user from profile search results page
 Verify that user is able to search for profiles</t>
   </si>
@@ -229,17 +223,68 @@
     <t>OtherProfilePageFollowTest</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>OPQA-496|OPQA-511</t>
+  </si>
+  <si>
+    <t>PublishAPostTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to post the article from profile page</t>
+  </si>
+  <si>
+    <t>OPQA-506</t>
+  </si>
+  <si>
+    <t>PublishAPostCountTest</t>
+  </si>
+  <si>
+    <t>verify that the total count of posts available under 'POST' tab of user profile.</t>
+  </si>
+  <si>
+    <t>OPQA-507</t>
+  </si>
+  <si>
+    <t>PublishedAPostNavigateToRVTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to select post and navigate to record view page</t>
+  </si>
+  <si>
+    <t>OPQA-508</t>
+  </si>
+  <si>
+    <t>ProfilePostsValidationTest</t>
+  </si>
+  <si>
+    <t>OPQA-514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to see all his POST's from his profile page. </t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>AddPostToWatchlistTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add his Post to 'watchlist'  from his profile.</t>
+  </si>
+  <si>
+    <t>OPQA-515</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +319,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -343,6 +401,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -664,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -681,16 +747,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F2" s="10"/>
     </row>
@@ -699,52 +765,52 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F5" s="10"/>
     </row>
@@ -753,16 +819,16 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F6" s="10"/>
     </row>
@@ -771,16 +837,16 @@
         <v>9</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F7" s="11"/>
     </row>
@@ -789,16 +855,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F8" s="10"/>
     </row>
@@ -807,16 +873,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -825,16 +891,16 @@
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F10" s="10"/>
     </row>
@@ -843,16 +909,16 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -861,16 +927,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -879,16 +945,16 @@
         <v>15</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -897,16 +963,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -915,16 +981,16 @@
         <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -933,90 +999,175 @@
         <v>18</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.5">
+      <c r="A22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -268,9 +268,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>AddPostToWatchlistTest</t>
   </si>
   <si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>OPQA-515</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -774,7 +774,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F3" s="10"/>
     </row>
@@ -1154,19 +1154,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
   <si>
     <t>TCID</t>
   </si>
@@ -27,12 +27,6 @@
   </si>
   <si>
     <t>Results</t>
-  </si>
-  <si>
-    <t>TC SCENARIO</t>
-  </si>
-  <si>
-    <t>TC STEPS</t>
   </si>
   <si>
     <t>ProfileFollowTest</t>
@@ -268,9 +262,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>AddPostToWatchlistTest</t>
   </si>
   <si>
@@ -278,22 +269,17 @@
   </si>
   <si>
     <t>OPQA-515</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -374,40 +360,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -711,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -730,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -743,481 +720,446 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="30">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="90">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="105">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="D9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="30">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="30">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.5">
+      <c r="A22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="90">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="105">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="45">
-      <c r="A13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="31.5">
-      <c r="A22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>78</v>
+      <c r="D25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="83.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="48" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="196.5" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" ht="252.75" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="86">
   <si>
     <t>TCID</t>
   </si>
@@ -273,12 +273,54 @@
   <si>
     <t>PASS</t>
   </si>
+  <si>
+    <t>ProfilePrimaryInstitutionTypeAheadTest</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add 'primary institution' using type ahead</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ProfilePrimaryInstitutionTypeAheadMinCharTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify that  '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">primary institution' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type ahead options should display while enter min 2 characters</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +349,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -686,20 +736,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="87.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -730,7 +780,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>74</v>
@@ -748,7 +798,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>74</v>
@@ -766,7 +816,7 @@
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>74</v>
@@ -784,7 +834,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>74</v>
@@ -802,7 +852,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>74</v>
@@ -820,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>74</v>
@@ -838,7 +888,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>74</v>
@@ -856,7 +906,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>74</v>
@@ -874,10 +924,10 @@
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -892,7 +942,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>74</v>
@@ -910,7 +960,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>74</v>
@@ -928,7 +978,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>74</v>
@@ -946,7 +996,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>74</v>
@@ -964,7 +1014,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>74</v>
@@ -982,7 +1032,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>74</v>
@@ -1000,7 +1050,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>74</v>
@@ -1018,7 +1068,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>74</v>
@@ -1036,7 +1086,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>74</v>
@@ -1054,7 +1104,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>74</v>
@@ -1072,7 +1122,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>74</v>
@@ -1089,7 +1139,7 @@
         <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>74</v>
@@ -1106,7 +1156,7 @@
         <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>74</v>
@@ -1123,7 +1173,7 @@
         <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>74</v>
@@ -1140,10 +1190,44 @@
         <v>77</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>74</v>
+      <c r="E27" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>TCID</t>
   </si>
@@ -281,9 +281,6 @@
   </si>
   <si>
     <t>Verify that user is able to add 'primary institution' using type ahead</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>ProfilePrimaryInstitutionTypeAheadMinCharTest</t>
@@ -319,7 +316,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -738,18 +734,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="87.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="87.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -769,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -780,7 +776,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>74</v>
@@ -798,7 +794,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>74</v>
@@ -816,7 +812,7 @@
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>74</v>
@@ -834,7 +830,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>74</v>
@@ -852,7 +848,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>74</v>
@@ -870,7 +866,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>74</v>
@@ -888,14 +884,14 @@
         <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="105">
+    <row r="9" spans="1:6" ht="90">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -906,7 +902,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>74</v>
@@ -924,7 +920,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>74</v>
@@ -942,14 +938,14 @@
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -960,14 +956,14 @@
         <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>74</v>
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -978,7 +974,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>74</v>
@@ -996,7 +992,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>74</v>
@@ -1014,7 +1010,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>74</v>
@@ -1032,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>74</v>
@@ -1050,7 +1046,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>74</v>
@@ -1068,7 +1064,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>74</v>
@@ -1086,7 +1082,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>74</v>
@@ -1104,7 +1100,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>74</v>
@@ -1122,13 +1118,13 @@
         <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5">
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="10" t="s">
         <v>65</v>
       </c>
@@ -1139,7 +1135,7 @@
         <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>74</v>
@@ -1156,7 +1152,7 @@
         <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>74</v>
@@ -1173,7 +1169,7 @@
         <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>74</v>
@@ -1190,7 +1186,7 @@
         <v>77</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>74</v>
@@ -1207,7 +1203,7 @@
         <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>74</v>
@@ -1215,13 +1211,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>75</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>TCID</t>
   </si>
@@ -273,12 +273,50 @@
   <si>
     <t>PASS</t>
   </si>
+  <si>
+    <t>ProfilePrimaryInstitutionTypeAheadTest</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add 'primary institution' using type ahead</t>
+  </si>
+  <si>
+    <t>ProfilePrimaryInstitutionTypeAheadMinCharTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify that  '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">primary institution' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type ahead options should display while enter min 2 characters</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +345,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -686,17 +732,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="87.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
@@ -719,7 +765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -845,7 +891,7 @@
       </c>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" ht="105">
+    <row r="9" spans="1:6" ht="90">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -877,7 +923,7 @@
         <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7"/>
     </row>
@@ -899,7 +945,7 @@
       </c>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -917,7 +963,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="30">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1078,7 +1124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.5">
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="10" t="s">
         <v>65</v>
       </c>
@@ -1144,6 +1190,40 @@
       </c>
       <c r="E25" s="10" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>TCID</t>
   </si>
@@ -309,6 +309,35 @@
         <scheme val="minor"/>
       </rPr>
       <t>type ahead options should display while enter min 2 characters</t>
+    </r>
+  </si>
+  <si>
+    <t>ProfileTypeaheadCountySelectTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify that user is able to add '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>country'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using typeahead</t>
     </r>
   </si>
 </sst>
@@ -732,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1223,6 +1252,23 @@
         <v>75</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>79</v>
       </c>
     </row>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>TCID</t>
   </si>
@@ -338,6 +338,35 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> using typeahead</t>
+    </r>
+  </si>
+  <si>
+    <t>ProfileCountryTypeaheadOptionsDisplayTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify that  'country</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using type ahead options should display while enter min 2 characters</t>
     </r>
   </si>
 </sst>
@@ -761,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1269,6 +1298,23 @@
         <v>75</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>79</v>
       </c>
     </row>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>TCID</t>
   </si>
@@ -309,6 +309,64 @@
         <scheme val="minor"/>
       </rPr>
       <t>type ahead options should display while enter min 2 characters</t>
+    </r>
+  </si>
+  <si>
+    <t>ProfileTypeaheadCountySelectTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify that user is able to add '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>country'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using typeahead</t>
+    </r>
+  </si>
+  <si>
+    <t>ProfileCountryTypeaheadOptionsDisplayTest</t>
+  </si>
+  <si>
+    <r>
+      <t>Verify that  'country</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> using type ahead options should display while enter min 2 characters</t>
     </r>
   </si>
 </sst>
@@ -732,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1223,6 +1281,40 @@
         <v>75</v>
       </c>
       <c r="E27" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>79</v>
       </c>
     </row>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>TCID</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>ProfilePrimaryInstitutionTypeAheadTest</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>Verify that user is able to add 'primary institution' using type ahead</t>
@@ -368,6 +365,18 @@
       </rPr>
       <t xml:space="preserve"> using type ahead options should display while enter min 2 characters</t>
     </r>
+  </si>
+  <si>
+    <t>OPQA-512</t>
+  </si>
+  <si>
+    <t>OPQA-516</t>
+  </si>
+  <si>
+    <t>OPQA-517</t>
+  </si>
+  <si>
+    <t>OPQA-518</t>
   </si>
 </sst>
 </file>
@@ -793,7 +802,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1255,10 +1264,10 @@
         <v>80</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>75</v>
@@ -1269,13 +1278,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>75</v>
@@ -1286,13 +1295,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>75</v>
@@ -1303,13 +1312,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>75</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>TCID</t>
   </si>
@@ -377,6 +377,45 @@
   </si>
   <si>
     <t>OPQA-518</t>
+  </si>
+  <si>
+    <t>TopicTypeaheadValidationTest</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Verify that topic typeahead options should display while enter min 2 characters</t>
+  </si>
+  <si>
+    <t>ProfileTabFocusTest</t>
+  </si>
+  <si>
+    <t>Verify that By default profile tab foucs should be on POST tab</t>
+  </si>
+  <si>
+    <t>PostTabInfiniteScrollValidationTest</t>
+  </si>
+  <si>
+    <t>Verify that Post tab infinite scroll displaying the more available records</t>
+  </si>
+  <si>
+    <t>CommentsTabInfiniteScrollValidationTest</t>
+  </si>
+  <si>
+    <t>Verify that Comments tab infinite scroll displaying the more available records</t>
+  </si>
+  <si>
+    <t>FollowersTabInfiniteScrollValidationTest</t>
+  </si>
+  <si>
+    <t>Verify that Followers tab infinite scroll displaying the more available records</t>
+  </si>
+  <si>
+    <t>FollowingTabInfiniteScrollValidationTest</t>
+  </si>
+  <si>
+    <t>Verify that Following tab infinite scroll displaying the more available records</t>
   </si>
 </sst>
 </file>
@@ -799,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1324,6 +1363,108 @@
         <v>75</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>79</v>
       </c>
     </row>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>TCID</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>ProfilePrimaryInstitutionTypeAheadTest</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>Verify that user is able to add 'primary institution' using type ahead</t>
@@ -368,6 +365,57 @@
       </rPr>
       <t xml:space="preserve"> using type ahead options should display while enter min 2 characters</t>
     </r>
+  </si>
+  <si>
+    <t>OPQA-512</t>
+  </si>
+  <si>
+    <t>OPQA-516</t>
+  </si>
+  <si>
+    <t>OPQA-517</t>
+  </si>
+  <si>
+    <t>OPQA-518</t>
+  </si>
+  <si>
+    <t>TopicTypeaheadValidationTest</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Verify that topic typeahead options should display while enter min 2 characters</t>
+  </si>
+  <si>
+    <t>ProfileTabFocusTest</t>
+  </si>
+  <si>
+    <t>Verify that By default profile tab foucs should be on POST tab</t>
+  </si>
+  <si>
+    <t>PostTabInfiniteScrollValidationTest</t>
+  </si>
+  <si>
+    <t>Verify that Post tab infinite scroll displaying the more available records</t>
+  </si>
+  <si>
+    <t>CommentsTabInfiniteScrollValidationTest</t>
+  </si>
+  <si>
+    <t>Verify that Comments tab infinite scroll displaying the more available records</t>
+  </si>
+  <si>
+    <t>FollowersTabInfiniteScrollValidationTest</t>
+  </si>
+  <si>
+    <t>Verify that Followers tab infinite scroll displaying the more available records</t>
+  </si>
+  <si>
+    <t>FollowingTabInfiniteScrollValidationTest</t>
+  </si>
+  <si>
+    <t>Verify that Following tab infinite scroll displaying the more available records</t>
   </si>
 </sst>
 </file>
@@ -790,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1255,10 +1303,10 @@
         <v>80</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>75</v>
@@ -1269,13 +1317,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>75</v>
@@ -1286,13 +1334,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>75</v>
@@ -1303,18 +1351,120 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="D29" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>79</v>
       </c>
     </row>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="109">
   <si>
     <t>TCID</t>
   </si>
@@ -416,6 +416,18 @@
   </si>
   <si>
     <t>Verify that Following tab infinite scroll displaying the more available records</t>
+  </si>
+  <si>
+    <t>Verify that POST tab count getting increased while appreciate post from Record view page</t>
+  </si>
+  <si>
+    <t>PublishedAPostLikeCountTest</t>
+  </si>
+  <si>
+    <t>PublishedAPostTimeStampTest</t>
+  </si>
+  <si>
+    <t>Verify that Created Post displayed as per System date</t>
   </si>
 </sst>
 </file>
@@ -838,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1431,7 +1443,7 @@
         <v>75</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1448,7 +1460,7 @@
         <v>75</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1465,6 +1477,40 @@
         <v>75</v>
       </c>
       <c r="E35" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>79</v>
       </c>
     </row>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="113">
   <si>
     <t>TCID</t>
   </si>
@@ -428,6 +428,18 @@
   </si>
   <si>
     <t>Verify that Created Post displayed as per System date</t>
+  </si>
+  <si>
+    <t>CommentsTabTimeStampValidationTest</t>
+  </si>
+  <si>
+    <t>Verify that Comments tab comments displayed with timestamp</t>
+  </si>
+  <si>
+    <t>HCRProfileBadgeTest</t>
+  </si>
+  <si>
+    <t>Verify that HCR profile having badge along with their name</t>
   </si>
 </sst>
 </file>
@@ -850,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1511,6 +1523,40 @@
         <v>75</v>
       </c>
       <c r="E37" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>79</v>
       </c>
     </row>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="117">
   <si>
     <t>TCID</t>
   </si>
@@ -440,6 +440,18 @@
   </si>
   <si>
     <t>Verify that HCR profile having badge along with their name</t>
+  </si>
+  <si>
+    <t>PublishedAPostCommentCountTest</t>
+  </si>
+  <si>
+    <t>Verify that POST tab Comment count getting increased while adding comment for post from Record view page</t>
+  </si>
+  <si>
+    <t>OtherProfileWatchlistTabTest</t>
+  </si>
+  <si>
+    <t>Verify that user is able to watch others watchlists</t>
   </si>
 </sst>
 </file>
@@ -862,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1557,6 +1569,40 @@
         <v>75</v>
       </c>
       <c r="E39" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>79</v>
       </c>
     </row>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
   <si>
     <t>TCID</t>
   </si>
@@ -382,9 +382,6 @@
     <t>TopicTypeaheadValidationTest</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Verify that topic typeahead options should display while enter min 2 characters</t>
   </si>
   <si>
@@ -452,6 +449,42 @@
   </si>
   <si>
     <t>Verify that user is able to watch others watchlists</t>
+  </si>
+  <si>
+    <t>OPQA-513</t>
+  </si>
+  <si>
+    <t>OPQA-510</t>
+  </si>
+  <si>
+    <t>OPQA-504</t>
+  </si>
+  <si>
+    <t>OPQA-519</t>
+  </si>
+  <si>
+    <t>OPQA-520</t>
+  </si>
+  <si>
+    <t>OPQA-521</t>
+  </si>
+  <si>
+    <t>OPQA-522</t>
+  </si>
+  <si>
+    <t>OPQA-524</t>
+  </si>
+  <si>
+    <t>OPQA-526</t>
+  </si>
+  <si>
+    <t>OPQA-528</t>
+  </si>
+  <si>
+    <t>OPQA-530</t>
+  </si>
+  <si>
+    <t>OPQA-509</t>
   </si>
 </sst>
 </file>
@@ -876,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" activeCellId="4" sqref="C34 C34 C34 C34 C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1407,10 +1440,10 @@
         <v>92</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>75</v>
@@ -1421,13 +1454,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>75</v>
@@ -1438,13 +1471,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>75</v>
@@ -1455,13 +1488,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>75</v>
@@ -1472,13 +1505,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>75</v>
@@ -1489,13 +1522,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>75</v>
@@ -1506,13 +1539,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>75</v>
@@ -1523,13 +1556,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>75</v>
@@ -1540,13 +1573,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>75</v>
@@ -1557,13 +1590,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>75</v>
@@ -1574,13 +1607,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>75</v>
@@ -1591,13 +1624,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>75</v>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="129">
   <si>
     <t>TCID</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>OPQA-509</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -909,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" activeCellId="4" sqref="C34 C34 C34 C34 C34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -953,9 +956,7 @@
       <c r="D2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -971,9 +972,7 @@
       <c r="D3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6">
@@ -1026,7 +1025,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -1044,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -1062,7 +1061,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -1080,7 +1079,7 @@
         <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="F9" s="7"/>
     </row>
@@ -1636,7 +1635,7 @@
         <v>75</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -913,7 +913,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D41"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
   <si>
     <t>TCID</t>
   </si>
@@ -485,9 +485,6 @@
   </si>
   <si>
     <t>OPQA-509</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -912,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" activeCellId="4" sqref="C34 C34 C34 C34 C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -956,7 +953,9 @@
       <c r="D2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="30">
@@ -972,7 +971,9 @@
       <c r="D3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6">
@@ -1025,7 +1026,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -1043,7 +1044,7 @@
         <v>75</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -1061,7 +1062,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F8" s="7"/>
     </row>
@@ -1079,7 +1080,7 @@
         <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="F9" s="7"/>
     </row>
@@ -1635,7 +1636,7 @@
         <v>75</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/xls/D suite.xlsx
+++ b/src/test/resources/xls/D suite.xlsx
@@ -581,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -595,8 +595,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -907,11 +905,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" activeCellId="4" sqref="C34 C34 C34 C34 C34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -920,10 +916,9 @@
     <col min="3" max="3" width="87.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -956,9 +951,8 @@
       <c r="E2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="30">
+    </row>
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -974,9 +968,8 @@
       <c r="E3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -992,16 +985,15 @@
       <c r="E4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1010,9 +1002,8 @@
       <c r="E5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="30">
+    </row>
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1028,9 +1019,8 @@
       <c r="E6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="30">
+    </row>
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1046,9 +1036,8 @@
       <c r="E7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="90">
+    </row>
+    <row r="8" spans="1:5" ht="90">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1064,9 +1053,8 @@
       <c r="E8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="90">
+    </row>
+    <row r="9" spans="1:5" ht="90">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1082,9 +1070,8 @@
       <c r="E9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="30">
+    </row>
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1100,9 +1087,8 @@
       <c r="E10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="30">
+    </row>
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1118,9 +1104,8 @@
       <c r="E11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1136,9 +1121,8 @@
       <c r="E12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="30">
+    </row>
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1154,9 +1138,8 @@
       <c r="E13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="30">
+    </row>
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1172,9 +1155,8 @@
       <c r="E14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="30">
+    </row>
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1190,9 +1172,8 @@
       <c r="E15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -1208,9 +1189,8 @@
       <c r="E16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1226,9 +1206,8 @@
       <c r="E17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -1244,9 +1223,8 @@
       <c r="E18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1262,9 +1240,8 @@
       <c r="E19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75">
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1280,362 +1257,361 @@
       <c r="E20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75">
-      <c r="A22" s="10" t="s">
+      <c r="E21" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="10" t="s">
+      <c r="E22" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="10" t="s">
+      <c r="E23" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10" t="s">
+      <c r="E24" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="10" t="s">
+      <c r="E25" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="10" t="s">
+      <c r="E26" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10" t="s">
+      <c r="E27" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10" t="s">
+      <c r="E28" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="10" t="s">
+      <c r="E29" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="10" t="s">
+      <c r="E30" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="10" t="s">
+      <c r="E31" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="8" t="s">
         <v>79</v>
       </c>
     </row>
